--- a/NT_AirPollution.Admin/App_Data/Template/RefundVeirfy2Template.xlsx
+++ b/NT_AirPollution.Admin/App_Data/Template/RefundVeirfy2Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Admin\App_Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{647BAC86-2D1F-4DF1-9294-A66628E203E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C7C88-D23A-4D80-AB3C-1B4474EBD4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BBD9B0EA-636A-4D2F-97E2-3D3FF282418C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBD9B0EA-636A-4D2F-97E2-3D3FF282418C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; &quot;&quot;-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; &quot;&quot;-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +133,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,22 +442,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,9 +463,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,6 +473,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,88 +516,10 @@
           <cell r="B17" t="str">
             <v>有異動</v>
           </cell>
-          <cell r="C17">
-            <v>1861</v>
-          </cell>
-          <cell r="D17">
-            <v>1248</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>無異動</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>建築(房屋)工程-鋼筋混凝土結構</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>建築(房屋)工程-鋼筋混凝土結構</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>無異動</v>
-          </cell>
-          <cell r="C19">
-            <v>87</v>
-          </cell>
-          <cell r="D19">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>無異動</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>無異動</v>
-          </cell>
-          <cell r="C21">
-            <v>141</v>
-          </cell>
-          <cell r="D21">
-            <v>141</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>無異動</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>86年09月02日至 87年05月02日</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>86年09月02日至 87年05月02日</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
             <v>有停工</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>86年10月01日</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>87年01月01日</v>
-          </cell>
-          <cell r="D24">
-            <v>80</v>
           </cell>
         </row>
       </sheetData>
@@ -902,14 +831,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="4" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="4" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -917,7 +846,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,113 +856,59 @@
       <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="str">
-        <f>[1]DATA!B17</f>
-        <v>有異動</v>
-      </c>
-      <c r="C3" s="17" t="str">
-        <f>[1]DATA!C17&amp;"元"</f>
-        <v>1861元</v>
-      </c>
-      <c r="D3" s="22" t="str">
-        <f>[1]DATA!D17&amp;"元"</f>
-        <v>1248元</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="str">
-        <f>[1]DATA!B18</f>
-        <v>無異動</v>
-      </c>
-      <c r="C4" s="18" t="str">
-        <f>[1]DATA!C18</f>
-        <v>建築(房屋)工程-鋼筋混凝土結構</v>
-      </c>
-      <c r="D4" s="23" t="str">
-        <f>[1]DATA!D18</f>
-        <v>建築(房屋)工程-鋼筋混凝土結構</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="str">
-        <f>[1]DATA!B19</f>
-        <v>無異動</v>
-      </c>
-      <c r="C5" s="11">
-        <f>[1]DATA!C19</f>
-        <v>87</v>
-      </c>
-      <c r="D5" s="24">
-        <f>[1]DATA!D19</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="str">
-        <f>[1]DATA!B20</f>
-        <v>無異動</v>
-      </c>
-      <c r="C6" s="17" t="str">
-        <f>[1]DATA!C20&amp;"元"</f>
-        <v>0元</v>
-      </c>
-      <c r="D6" s="22" t="str">
-        <f>[1]DATA!D20&amp;"元"</f>
-        <v>0元</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="str">
-        <f>[1]DATA!B21</f>
-        <v>無異動</v>
-      </c>
-      <c r="C7" s="17" t="str">
-        <f>[1]DATA!C21&amp;"平方公尺"</f>
-        <v>141平方公尺</v>
-      </c>
-      <c r="D7" s="22" t="str">
-        <f>[1]DATA!D21&amp;"平方公尺"</f>
-        <v>141平方公尺</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="str">
-        <f>[1]DATA!B22</f>
-        <v>無異動</v>
-      </c>
-      <c r="C8" s="19" t="str">
-        <f>[1]DATA!C22</f>
-        <v>86年09月02日至 87年05月02日</v>
-      </c>
-      <c r="D8" s="25" t="str">
-        <f>[1]DATA!D22</f>
-        <v>86年09月02日至 87年05月02日</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1041,103 +916,52 @@
         <f>[1]DATA!B23</f>
         <v>有停工</v>
       </c>
-      <c r="C9" s="12">
-        <f>[1]DATA!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="26">
-        <f>[1]DATA!D23</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="33.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="12"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="33.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="14">
-        <f>IF([1]DATA!D24=0,"",[1]DATA!D24)</f>
-        <v>80</v>
-      </c>
-      <c r="C11" s="14" t="str">
-        <f>IF([1]DATA!B24=0,"",[1]DATA!B24)</f>
-        <v>86年10月01日</v>
-      </c>
-      <c r="D11" s="28" t="str">
-        <f>IF([1]DATA!C24=0,"",[1]DATA!C24)</f>
-        <v>87年01月01日</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="14" t="str">
-        <f>IF([1]DATA!D25=0,"",[1]DATA!D25)</f>
-        <v/>
-      </c>
-      <c r="C12" s="14" t="str">
-        <f>IF([1]DATA!B25=0,"",[1]DATA!B25)</f>
-        <v/>
-      </c>
-      <c r="D12" s="28" t="str">
-        <f>IF([1]DATA!C25=0,"",[1]DATA!C25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="14" t="str">
-        <f>IF([1]DATA!D26=0,"",[1]DATA!D26)</f>
-        <v/>
-      </c>
-      <c r="C13" s="14" t="str">
-        <f>IF([1]DATA!B26=0,"",[1]DATA!B26)</f>
-        <v/>
-      </c>
-      <c r="D13" s="28" t="str">
-        <f>IF([1]DATA!C26=0,"",[1]DATA!C26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="14" t="str">
-        <f>IF([1]DATA!D27=0,"",[1]DATA!D27)</f>
-        <v/>
-      </c>
-      <c r="C14" s="14" t="str">
-        <f>IF([1]DATA!B27=0,"",[1]DATA!B27)</f>
-        <v/>
-      </c>
-      <c r="D14" s="28" t="str">
-        <f>IF([1]DATA!C27=0,"",[1]DATA!C27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
-      <c r="B15" s="15" t="str">
-        <f>IF([1]DATA!D28=0,"",[1]DATA!D28)</f>
-        <v/>
-      </c>
-      <c r="C15" s="15" t="str">
-        <f>IF([1]DATA!B28=0,"",[1]DATA!B28)</f>
-        <v/>
-      </c>
-      <c r="D15" s="29" t="str">
-        <f>IF([1]DATA!C28=0,"",[1]DATA!C28)</f>
-        <v/>
-      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
